--- a/medicine/Sexualité et sexologie/Photographie_érotique/Photographie_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Photographie_érotique/Photographie_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photographie_%C3%A9rotique</t>
+          <t>Photographie_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La photographie érotique est un type de photographie de nu cherchant à provoquer une excitation sexuelle.
 C’est une spécialité qui a été pratiquée par des photographes de renom tels que Lucien Clergue, Ren Hang, Bettina Rheims, Jeanloup Sieff, etc.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photographie_%C3%A9rotique</t>
+          <t>Photographie_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,70 +525,321 @@
           <t>Histoire illustrée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dès l'invention de la photographie, les photographes ont réalisé des photographies érotiques.
-XIXe siècle
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès l'invention de la photographie, les photographes ont réalisé des photographies érotiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire illustrée</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Daguerreotype coloré par Félix-Jacques Moulin, c.1851-1854.
 			Nu féminin allongé, Amélie par Félix-Jacques Moulin, c.1852-1853.
 			Photographie de nu par un photographe inconnu, XIXe siècle.
 			Photographie du buste d'une jeune femme par un photographe inconnu.
-Les nus masculins de Wilhelm von Gloeden
-Un allemand, Wilhelm von Gloeden, en cure à Taormina (Sicile) de 1890 à 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire illustrée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les nus masculins de Wilhelm von Gloeden</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un allemand, Wilhelm von Gloeden, en cure à Taormina (Sicile) de 1890 à 1910.
 			Reclining Male Nude Beside Vase au Metropolitan Museum of Art.
 			Caino.
 			Boy with Flying Fish.
 			Boy with Gloeden's dog Nedda.
 			Nu masculin.
-Les cartes postales des années 1900
-Dans les années 1900, pour détourner la loi, les photographes français ont inventé la carte postale de nu vendue plus ou moins sous le manteau dans les kiosques à journaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire illustrée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les cartes postales des années 1900</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1900, pour détourner la loi, les photographes français ont inventé la carte postale de nu vendue plus ou moins sous le manteau dans les kiosques à journaux.
 			Nu par Jean Agélou vers 1910.
-			Jean Agélou[1]Modèle : Fernande[2]
+			Jean AgélouModèle : Fernande
 			Nu féminin par Charles Gilhousen, carte postale, 1919.
 			Scène inspirée de la Grèce antique avec cithare.
-Première moitié du XXe siècle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire illustrée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première moitié du XXe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Portrait par Bellocq, c.1912 (1900-1917).
 			Photographie érotique vers 1910.
-Deuxième moitié du XXe siècle</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Photographie_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Photographie érotique et photographie pornographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est d'usage de considérer la photographie érotique et la photographie pornographique comme étant de même nature, la différence étant une question de degré sur un continuum linéaire. En fait, on ne peut comprendre leur différence profonde qu'en adoptant une logique à deux axes orthogonaux, définissant des coordonnées cartésiennes de l'obscénité,« X » « XX » et « XXX ».
 Cette grille s'inspire de celle de Blake et Mouton et, pour la dimension « pornographique » des échelles SAP et COPINE d'évaluation du degré de pornographie enfantine.
-Les deux dimensions de l'obscénité
-L'obscénité d'une photographie — le fait qu'elle puisse être montrée, publiée ou exposée — est la résultante de deux facteurs : son érotisme et son caractère pornographique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Photographie érotique et photographie pornographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les deux dimensions de l'obscénité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obscénité d'une photographie — le fait qu'elle puisse être montrée, publiée ou exposée — est la résultante de deux facteurs : son érotisme et son caractère pornographique.
 Son érotisme est plus ou moins proportionnel aux parties du corps — fesses, seins, tétons, vulve, pénis, anus — montrées, en plus ou moins gros plan.
 Son plus ou moins grand caractère pornographique — faible, moyen, grand — est facteur du nombre de partenaires participants à la scène photographiée et à l'acceptation sociétale et légale de la position et la pratique représentée.
-La dimension érotique
-La dimension érotique d'une photographie érotique est évaluée sur une échelle verticale à 10 degrés.
-La dimension pornographique
-La dimension pornographique d'une photographie érotique est évaluée sur une échelle horizontale à 10 degrés inspirée de l'échelle COPINE (verticale) que, pour mémoire, nous redonnons ci-dessus :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Photographie érotique et photographie pornographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La dimension érotique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dimension érotique d'une photographie érotique est évaluée sur une échelle verticale à 10 degrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Photographie_érotique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photographie_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Photographie érotique et photographie pornographique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La dimension pornographique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dimension pornographique d'une photographie érotique est évaluée sur une échelle horizontale à 10 degrés inspirée de l'échelle COPINE (verticale) que, pour mémoire, nous redonnons ci-dessus :
 </t>
         </is>
       </c>
